--- a/Documentação/Planejamentos/plano_de_acao.xlsx
+++ b/Documentação/Planejamentos/plano_de_acao.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{215DEB7F-1633-4BC8-BD4E-51C515FC40F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gi/Desktop/projeto-bandtec/Documentação/Planejamentos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>PLANO DE AÇÃO - CHAMALEON PROJECT</t>
   </si>
@@ -48,9 +58,6 @@
     <t>% CONCLUÍDO</t>
   </si>
   <si>
-    <t>ANOTAÇÕES</t>
-  </si>
-  <si>
     <t>(SITE)Página: HOME</t>
   </si>
   <si>
@@ -117,17 +124,26 @@
     <t>Urgente</t>
   </si>
   <si>
-    <t>20.04.2020</t>
-  </si>
-  <si>
-    <t>(BD)Banco de dados</t>
+    <t>FEITO</t>
+  </si>
+  <si>
+    <t>TODOS</t>
+  </si>
+  <si>
+    <t>(BD)Script Banco de dados</t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -306,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -324,9 +346,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,6 +353,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,13 +539,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -542,6 +560,13 @@
           <bgColor rgb="FFE2EFDA"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -557,7 +582,6 @@
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -592,16 +616,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{809BBC94-0DFF-44B6-8E8A-51AAA5520AF4}" name="Table1" displayName="Table1" ref="A2:G17" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="A2:G17" xr:uid="{09990920-87AD-46BF-9CF6-0E89AB61D201}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G17" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A2:G17"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5DD898CE-AA49-41A8-95EE-271EB2BD9AE6}" name="TAREFA" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{FE550F1D-399B-4579-AB00-948895EFE66C}" name="PRIORIDADE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3DCEA48D-E814-4385-A0D0-4618768AFDDF}" name="STATUS" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9643F7A5-1B77-4B2E-845D-771E6D779E04}" name="PRAZO" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{580C9533-48E5-4F00-9E87-5C605A81CAF8}" name="RESPONSÁVEL" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{6625C6C4-3B13-4253-BA87-8336A836FC67}" name="% CONCLUÍDO" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{70A24D55-7712-4157-AD31-46B3C593F6CF}" name="ANOTAÇÕES" dataDxfId="0"/>
+    <tableColumn id="1" name="TAREFA" dataDxfId="6"/>
+    <tableColumn id="2" name="PRIORIDADE" dataDxfId="5"/>
+    <tableColumn id="3" name="STATUS" dataDxfId="4"/>
+    <tableColumn id="4" name="PRAZO" dataDxfId="3"/>
+    <tableColumn id="5" name="RESPONSÁVEL" dataDxfId="2"/>
+    <tableColumn id="6" name="% CONCLUÍDO" dataDxfId="1"/>
+    <tableColumn id="7" name="SPRINT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -893,36 +917,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="53.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -942,262 +966,286 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="G4" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="G9" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="G10" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="G11" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
+      <c r="E12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="E14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1206,7 +1254,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1215,7 +1263,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>

--- a/Documentação/Planejamentos/plano_de_acao.xlsx
+++ b/Documentação/Planejamentos/plano_de_acao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -921,7 +921,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,15 +936,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -988,7 +988,7 @@
       <c r="F3" s="11">
         <v>0</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>10</v>
@@ -1078,9 +1078,9 @@
         <v>19</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       <c r="F10" s="11">
         <v>0</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
       <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="F12" s="11">
         <v>1</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       <c r="F13" s="11">
         <v>1</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Documentação/Planejamentos/plano_de_acao.xlsx
+++ b/Documentação/Planejamentos/plano_de_acao.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>PLANO DE AÇÃO - CHAMALEON PROJECT</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Alta</t>
-  </si>
-  <si>
-    <t>Em processo</t>
   </si>
   <si>
     <t>27.04.2020</t>
@@ -921,7 +918,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -966,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -977,272 +974,272 @@
         <v>8</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11">
         <v>1</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
